--- a/altium/Rev4/Build/BOM/Bill of Materials-SkayboardRev4.xlsx
+++ b/altium/Rev4/Build/BOM/Bill of Materials-SkayboardRev4.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\code\Skayboard\altium\Rev4\Build\BOM\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{94907B04-5641-469E-8868-14DC10BC9FA8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{2E4748D9-2AFE-4552-9DA2-8DE67AB8169B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4114" yWindow="3994" windowWidth="18515" windowHeight="10835" xr2:uid="{C9B8D99C-ED30-47D4-AAF7-2C3F13B163A8}"/>
+    <workbookView xWindow="4114" yWindow="3994" windowWidth="18515" windowHeight="10835" xr2:uid="{E201E9CF-AEDC-4752-B69B-8C0A9FC6A523}"/>
   </bookViews>
   <sheets>
     <sheet name="Bill of Materials-SkayboardRev4" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="37">
   <si>
     <t>Name</t>
   </si>
@@ -66,7 +66,7 @@
     <t>MX RGB</t>
   </si>
   <si>
-    <t>CL05B104KO5NNNC</t>
+    <t>100nF</t>
   </si>
   <si>
     <t>C1</t>
@@ -75,7 +75,7 @@
     <t>CAPC1050X55X23ML05T13</t>
   </si>
   <si>
-    <t>C0402C470J5GACTU</t>
+    <t>47pF</t>
   </si>
   <si>
     <t>C2, C3</t>
@@ -84,7 +84,7 @@
     <t>CAPC1005X55X30ML05T10</t>
   </si>
   <si>
-    <t>04025A220JAT2A</t>
+    <t>22pF</t>
   </si>
   <si>
     <t>C4, C5</t>
@@ -93,9 +93,6 @@
     <t>CAPC1005X56X25NL10T15</t>
   </si>
   <si>
-    <t>100nF</t>
-  </si>
-  <si>
     <t>C6, C7, C8, C9, C10, C11</t>
   </si>
   <si>
@@ -108,7 +105,7 @@
     <t>CR1, CR2, CR3, CR4, CR5, CR6, CR7, CR8, CR9, CR10, CR11, CR12, CR13, CR14, CR15, CR16, CR17, CR18, CR19, CR20, CR21, CR22, CR23, CR24, CR25, CR26, CR27, CR28, CR29, CR30, CR31, CR32, CR33, CR34, CR35, CR36, CR37, CR38, CR39, CR40, CR41, CR42, CR43, CR44</t>
   </si>
   <si>
-    <t>CRCW040222R0FKED</t>
+    <t>22R</t>
   </si>
   <si>
     <t>R1, R2</t>
@@ -117,7 +114,7 @@
     <t>RESC1005X40X25LL05T05</t>
   </si>
   <si>
-    <t>ERT-J0ER103J</t>
+    <t>10K</t>
   </si>
   <si>
     <t>R3</t>
@@ -529,7 +526,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{76EA78BC-9673-4067-A0CA-563DB0169E8E}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B1CFBB23-43AD-4D35-8876-90344F9F2BF8}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
@@ -630,13 +627,13 @@
     </row>
     <row r="7" spans="1:4" ht="29.15" x14ac:dyDescent="0.4">
       <c r="A7" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B7" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="B7" s="3" t="s">
+      <c r="C7" s="3" t="s">
         <v>20</v>
-      </c>
-      <c r="C7" s="3" t="s">
-        <v>21</v>
       </c>
       <c r="D7" s="4">
         <v>6</v>
@@ -644,13 +641,13 @@
     </row>
     <row r="8" spans="1:4" ht="204" x14ac:dyDescent="0.4">
       <c r="A8" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="B8" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="B8" s="3" t="s">
-        <v>23</v>
-      </c>
       <c r="C8" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D8" s="4">
         <v>44</v>
@@ -658,13 +655,13 @@
     </row>
     <row r="9" spans="1:4" ht="29.15" x14ac:dyDescent="0.4">
       <c r="A9" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B9" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="B9" s="3" t="s">
+      <c r="C9" s="3" t="s">
         <v>25</v>
-      </c>
-      <c r="C9" s="3" t="s">
-        <v>26</v>
       </c>
       <c r="D9" s="4">
         <v>2</v>
@@ -672,13 +669,13 @@
     </row>
     <row r="10" spans="1:4" ht="29.15" x14ac:dyDescent="0.4">
       <c r="A10" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="B10" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="B10" s="3" t="s">
+      <c r="C10" s="3" t="s">
         <v>28</v>
-      </c>
-      <c r="C10" s="3" t="s">
-        <v>29</v>
       </c>
       <c r="D10" s="4">
         <v>1</v>
@@ -686,13 +683,13 @@
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A11" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="B11" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="B11" s="3" t="s">
-        <v>31</v>
-      </c>
       <c r="C11" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D11" s="4">
         <v>2</v>
@@ -700,13 +697,13 @@
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A12" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="B12" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="B12" s="3" t="s">
+      <c r="C12" s="3" t="s">
         <v>33</v>
-      </c>
-      <c r="C12" s="3" t="s">
-        <v>34</v>
       </c>
       <c r="D12" s="4">
         <v>1</v>
@@ -714,13 +711,13 @@
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A13" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="B13" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="B13" s="3" t="s">
+      <c r="C13" s="3" t="s">
         <v>36</v>
-      </c>
-      <c r="C13" s="3" t="s">
-        <v>37</v>
       </c>
       <c r="D13" s="4">
         <v>1</v>
